--- a/ResultadoEleicoesDistritos/GUARDA_PINHEL.xlsx
+++ b/ResultadoEleicoesDistritos/GUARDA_PINHEL.xlsx
@@ -597,64 +597,64 @@
         <v>2564</v>
       </c>
       <c r="H2" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I2" t="n">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="J2" t="n">
-        <v>1057</v>
+        <v>1024</v>
       </c>
       <c r="K2" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="L2" t="n">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="M2" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N2" t="n">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="n">
         <v>0</v>
       </c>
-      <c r="P2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
+        <v>12</v>
+      </c>
+      <c r="S2" t="n">
+        <v>130</v>
+      </c>
+      <c r="T2" t="n">
+        <v>164</v>
+      </c>
+      <c r="U2" t="n">
+        <v>15</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1683</v>
+      </c>
+      <c r="W2" t="n">
         <v>1</v>
       </c>
-      <c r="R2" t="n">
+      <c r="X2" t="n">
+        <v>1651</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>31</v>
+      </c>
+      <c r="AA2" t="n">
         <v>10</v>
-      </c>
-      <c r="S2" t="n">
-        <v>135</v>
-      </c>
-      <c r="T2" t="n">
-        <v>197</v>
-      </c>
-      <c r="U2" t="n">
-        <v>13</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1686</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1591</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
